--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC1_TC2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="206" yWindow="-15900" windowWidth="20220" windowHeight="11451" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2940" yWindow="840" windowWidth="17808" windowHeight="9468" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="QuantitativeMetrics" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="_Values" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -452,7 +452,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -533,10 +533,14 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Runtime exception due to invalid locator</t>
+        </is>
+      </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
           <t>If it doesn't raise any exceptions at runtime</t>
@@ -549,16 +553,8 @@
           <t>Assertion validity</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>The generated code dosn't redirect to login page at the start</t>
-        </is>
-      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="inlineStr">
         <is>
           <t>If the test pass or fails compared to baseline tests (some result or not)</t>
@@ -620,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2102139731320689</v>
+        <v>0.2140601269782228</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.21021397313206894, 'ngram_match_score': 0.0753538535441081, 'weighted_ngram_match_score': 0.10968278262044664, 'syntax_match_score': 0.5045372050816697, 'dataflow_match_score': 0.15128205128205127}</t>
+          <t>{'codebleu': 0.21406012697822277, 'ngram_match_score': 0.0753538535441081, 'weighted_ngram_match_score': 0.10968278262044664, 'syntax_match_score': 0.5045372050816697, 'dataflow_match_score': 0.16666666666666666}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC1_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2140601269782228</v>
+        <v>0.2223934603115561</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.21406012697822277, 'ngram_match_score': 0.0753538535441081, 'weighted_ngram_match_score': 0.10968278262044664, 'syntax_match_score': 0.5045372050816697, 'dataflow_match_score': 0.16666666666666666}</t>
+          <t>{'codebleu': 0.2223934603115561, 'ngram_match_score': 0.0753538535441081, 'weighted_ngram_match_score': 0.10968278262044664, 'syntax_match_score': 0.5045372050816697, 'dataflow_match_score': 0.2}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
